--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3351.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3351.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213080953667441</v>
+        <v>2.115850925445557</v>
       </c>
       <c r="B1">
-        <v>2.778918254756713</v>
+        <v>3.587602615356445</v>
       </c>
       <c r="C1">
-        <v>6.824566741856917</v>
+        <v>2.833600282669067</v>
       </c>
       <c r="D1">
-        <v>2.118673119894324</v>
+        <v>2.311908721923828</v>
       </c>
       <c r="E1">
-        <v>1.169493146875483</v>
+        <v>1.51703405380249</v>
       </c>
     </row>
   </sheetData>
